--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_beg.xlsx
@@ -484,7 +484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Let me rest a little. I feel like I just broke every bone in my body… Maybe it's your turn to let me take a nap.
+    <t xml:space="preserve">[name="Hoshiguma"]  Let me rest a little. I feel like I just broke every bone in my body... Maybe it's your turn to let me take a nap.
 </t>
   </si>
   <si>
@@ -536,11 +536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  You, Reunion! I’ll take you all on!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  Damn it… She’s looking down at us!
+    <t xml:space="preserve">[name="Ch'en"]  You, Reunion! I'll take you all on!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Damn it... She's looking down at us!
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  Maybe I have changed. As time passed, I've had fewer grievances about Lungmen, and I’ve been able to place my trust in more people.
+    <t xml:space="preserve">[name="Ch'en"]  Maybe I have changed. As time passed, I've had fewer grievances about Lungmen, and I've been able to place my trust in more people.
 </t>
   </si>
   <si>
